--- a/Excel/ElementConfig.xlsx
+++ b/Excel/ElementConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3ECFD6-B2EB-41BB-806F-B7AF9BAC1B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDAF2E9-1F82-44B4-A93D-839584481735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -68,6 +68,34 @@
   </si>
   <si>
     <t>hero_frame_light</t>
+  </si>
+  <si>
+    <t>元素名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -465,14 +493,15 @@
   <dimension ref="A3:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" activeCellId="1" sqref="D10 D12"/>
+      <selection activeCell="E6" sqref="E6:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.1796875" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
     <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
@@ -488,7 +517,9 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -504,7 +535,9 @@
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -520,7 +553,9 @@
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -536,7 +571,9 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" s="5"/>
@@ -553,6 +590,9 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -566,7 +606,9 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" s="5"/>
@@ -583,7 +625,9 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="5"/>
@@ -599,7 +643,9 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="5"/>
